--- a/data/raw_data_template.xlsx
+++ b/data/raw_data_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\work\zaki\automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2D06DC-56B0-4F66-BC68-ED0128757F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634F2E29-CCA4-47C2-B327-459474D6EFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="201">
   <si>
     <t>الاسم و لقب</t>
   </si>
@@ -53,14 +53,585 @@
   </si>
   <si>
     <t>comment-2</t>
+  </si>
+  <si>
+    <t>بشلاغم عبد الحميد</t>
+  </si>
+  <si>
+    <t>تلمسان</t>
+  </si>
+  <si>
+    <t>بوهناق منصورة</t>
+  </si>
+  <si>
+    <t>XL et xxl</t>
+  </si>
+  <si>
+    <t>قشابية ثالثة</t>
+  </si>
+  <si>
+    <t>confirmer</t>
+  </si>
+  <si>
+    <t>زوج صفورا</t>
+  </si>
+  <si>
+    <t>bureau</t>
+  </si>
+  <si>
+    <t>مقاس 56</t>
+  </si>
+  <si>
+    <t>الجلفة</t>
+  </si>
+  <si>
+    <t>بيضا</t>
+  </si>
+  <si>
+    <t>للمنزل</t>
+  </si>
+  <si>
+    <t>علي زوبيري</t>
+  </si>
+  <si>
+    <t>Timimoun</t>
+  </si>
+  <si>
+    <t>للمكتب</t>
+  </si>
+  <si>
+    <t>صالح</t>
+  </si>
+  <si>
+    <t>النعامة</t>
+  </si>
+  <si>
+    <t>البيوض</t>
+  </si>
+  <si>
+    <t>صفرا</t>
+  </si>
+  <si>
+    <t>Nadir</t>
+  </si>
+  <si>
+    <t>Mostaganem</t>
+  </si>
+  <si>
+    <t>Salamandre</t>
+  </si>
+  <si>
+    <t>58 XL</t>
+  </si>
+  <si>
+    <t>سنية فتيحة</t>
+  </si>
+  <si>
+    <t>الجزائر</t>
+  </si>
+  <si>
+    <t>11ديسمبر المحكمة الدستورية الابيار</t>
+  </si>
+  <si>
+    <t>xxxl 62</t>
+  </si>
+  <si>
+    <t>بيضا بالاصفر</t>
+  </si>
+  <si>
+    <t>عبدالعالي</t>
+  </si>
+  <si>
+    <t>0658 51 33 34</t>
+  </si>
+  <si>
+    <t>عين يوسف</t>
+  </si>
+  <si>
+    <t>الكحلة</t>
+  </si>
+  <si>
+    <t>Blanche</t>
+  </si>
+  <si>
+    <t>Alger</t>
+  </si>
+  <si>
+    <t>40/42 larbi ben mehidi alger centre</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>البيضاء</t>
+  </si>
+  <si>
+    <t>salim</t>
+  </si>
+  <si>
+    <t>Tlemcen</t>
+  </si>
+  <si>
+    <t>kiffane</t>
+  </si>
+  <si>
+    <t>grande taille je fais 1.93 m</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>صالح سليمان</t>
+  </si>
+  <si>
+    <t>وهران</t>
+  </si>
+  <si>
+    <t>حسناوي بير الجير وهران</t>
+  </si>
+  <si>
+    <t>مكتب العقيد</t>
+  </si>
+  <si>
+    <t>ياسين</t>
+  </si>
+  <si>
+    <t>حي خمستي</t>
+  </si>
+  <si>
+    <t>1,48</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>26 شارع الزاوي معمر حي رجال الرحى حاسي بونيف</t>
+  </si>
+  <si>
+    <t>عبدالله</t>
+  </si>
+  <si>
+    <t>تموشنت</t>
+  </si>
+  <si>
+    <t>3 xl</t>
+  </si>
+  <si>
+    <t>الصفرا</t>
+  </si>
+  <si>
+    <t>arif</t>
+  </si>
+  <si>
+    <t>oran</t>
+  </si>
+  <si>
+    <t>ارزيو</t>
+  </si>
+  <si>
+    <t>1 mètre 94</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>سمير</t>
+  </si>
+  <si>
+    <t>ميلة</t>
+  </si>
+  <si>
+    <t>زوج بيضا و صفرا</t>
+  </si>
+  <si>
+    <t>علال عبيدي</t>
+  </si>
+  <si>
+    <t>تيميمون</t>
+  </si>
+  <si>
+    <t>58/24</t>
+  </si>
+  <si>
+    <t>rappel 1</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>0770 33 43 79</t>
+  </si>
+  <si>
+    <t>ouargla</t>
+  </si>
+  <si>
+    <t>hassi Messaoud</t>
+  </si>
+  <si>
+    <t>سعيد</t>
+  </si>
+  <si>
+    <t>المدية</t>
+  </si>
+  <si>
+    <t>البرواقية</t>
+  </si>
+  <si>
+    <t>Annulé</t>
+  </si>
+  <si>
+    <t>علان معاذ</t>
+  </si>
+  <si>
+    <t>الاغواط</t>
+  </si>
+  <si>
+    <t>المعمورة بستان</t>
+  </si>
+  <si>
+    <t>بدري صالحي</t>
+  </si>
+  <si>
+    <t>الَمغير</t>
+  </si>
+  <si>
+    <t>حي الدشرة</t>
+  </si>
+  <si>
+    <t>بيضا بلصفر</t>
+  </si>
+  <si>
+    <t>بن عمر محمد</t>
+  </si>
+  <si>
+    <t>أدرار</t>
+  </si>
+  <si>
+    <t>حي 5 جويلية ادرار فيل</t>
+  </si>
+  <si>
+    <t>البريشي ناجم</t>
+  </si>
+  <si>
+    <t>ادرار</t>
+  </si>
+  <si>
+    <t>تيليلان بلدية</t>
+  </si>
+  <si>
+    <t>54/26</t>
+  </si>
+  <si>
+    <t>adjdir nasreddine</t>
+  </si>
+  <si>
+    <t>tlemcen</t>
+  </si>
+  <si>
+    <t>07 rue bensaid abdallah remchi</t>
+  </si>
+  <si>
+    <t>58/26</t>
+  </si>
+  <si>
+    <t>سلام عليكم</t>
+  </si>
+  <si>
+    <t>مستغانم</t>
+  </si>
+  <si>
+    <t>بوقيرات</t>
+  </si>
+  <si>
+    <t>4xl</t>
+  </si>
+  <si>
+    <t>yacine</t>
+  </si>
+  <si>
+    <t>البيض</t>
+  </si>
+  <si>
+    <t>mesbahi</t>
+  </si>
+  <si>
+    <t>Salamandre. Mostaganem</t>
+  </si>
+  <si>
+    <t>ali nedjar</t>
+  </si>
+  <si>
+    <t>alger</t>
+  </si>
+  <si>
+    <t>babezouar</t>
+  </si>
+  <si>
+    <t>سعيد بن محمد</t>
+  </si>
+  <si>
+    <t>تيزس وزو</t>
+  </si>
+  <si>
+    <t>مسجد التقوى قرية عين مزياب بلدية تيزي وزو</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>تمنراست</t>
+  </si>
+  <si>
+    <t>abbas khoja</t>
+  </si>
+  <si>
+    <t>constantine</t>
+  </si>
+  <si>
+    <t>el khroub</t>
+  </si>
+  <si>
+    <t>حبيب</t>
+  </si>
+  <si>
+    <t>سعيدة</t>
+  </si>
+  <si>
+    <t>Miloua Ismail</t>
+  </si>
+  <si>
+    <t>0555 03 24 12</t>
+  </si>
+  <si>
+    <t>sidi bel Abbes</t>
+  </si>
+  <si>
+    <t>sidi Djilalli</t>
+  </si>
+  <si>
+    <t>محمد عميرات</t>
+  </si>
+  <si>
+    <t>ورقلة</t>
+  </si>
+  <si>
+    <t>حي الاستقلال البور بلدية انقوسة</t>
+  </si>
+  <si>
+    <t>يونس</t>
+  </si>
+  <si>
+    <t>بني عباس</t>
+  </si>
+  <si>
+    <t>حي لعقد لطفي</t>
+  </si>
+  <si>
+    <t>خليل</t>
+  </si>
+  <si>
+    <t>الشلف</t>
+  </si>
+  <si>
+    <t>حي 206 مسكن بوقادير</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>زوقاري طاهر</t>
+  </si>
+  <si>
+    <t>غليزان</t>
+  </si>
+  <si>
+    <t>17 شارع الجمهورية غليزان</t>
+  </si>
+  <si>
+    <t>xxxl</t>
+  </si>
+  <si>
+    <t>منير</t>
+  </si>
+  <si>
+    <t>الجزائر العاصمة</t>
+  </si>
+  <si>
+    <t>شارع حسيبة بن بوعلي</t>
+  </si>
+  <si>
+    <t>tidjani mohamed</t>
+  </si>
+  <si>
+    <t>eloued</t>
+  </si>
+  <si>
+    <t>guemar</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>el hamiz dar el bida</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>Batna</t>
+  </si>
+  <si>
+    <t>3xl. 62</t>
+  </si>
+  <si>
+    <t>aida</t>
+  </si>
+  <si>
+    <t>sba</t>
+  </si>
+  <si>
+    <t>aissat idir 10</t>
+  </si>
+  <si>
+    <t>youcef</t>
+  </si>
+  <si>
+    <t>جقدالي عامر</t>
+  </si>
+  <si>
+    <t>بادية حاسي العش …دائرة حاسي بحبح</t>
+  </si>
+  <si>
+    <t>8000*4</t>
+  </si>
+  <si>
+    <t>وحدة من كل لون</t>
+  </si>
+  <si>
+    <t>إدريس</t>
+  </si>
+  <si>
+    <t>نتللغعهم</t>
+  </si>
+  <si>
+    <t>تتاللتنححتاا</t>
+  </si>
+  <si>
+    <t>Faux numero</t>
+  </si>
+  <si>
+    <t>sidali</t>
+  </si>
+  <si>
+    <t>0770 62 58 89</t>
+  </si>
+  <si>
+    <t>guide Constantine</t>
+  </si>
+  <si>
+    <t>semicha nacereddine</t>
+  </si>
+  <si>
+    <t>djelfa</t>
+  </si>
+  <si>
+    <t>ain oussera</t>
+  </si>
+  <si>
+    <t>اولاد فايت</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>العاصمه</t>
+  </si>
+  <si>
+    <t>قشبية روعة اريد واحدة 58L</t>
+  </si>
+  <si>
+    <t>حي البساتين بناية 71/11</t>
+  </si>
+  <si>
+    <t>58L</t>
+  </si>
+  <si>
+    <t>شطيبي. هارون</t>
+  </si>
+  <si>
+    <t>قالمة</t>
+  </si>
+  <si>
+    <t>salah</t>
+  </si>
+  <si>
+    <t>yaghmourassen</t>
+  </si>
+  <si>
+    <t>عبدالكريم بوشرى</t>
+  </si>
+  <si>
+    <t>بودة ادرار</t>
+  </si>
+  <si>
+    <t>mosbah youcef</t>
+  </si>
+  <si>
+    <t>el menia</t>
+  </si>
+  <si>
+    <t>hai belaid</t>
+  </si>
+  <si>
+    <t>اصفر</t>
+  </si>
+  <si>
+    <t>رڨيڨ حبيب صلاح الدين</t>
+  </si>
+  <si>
+    <t>مسجد الكوثر حي خروبة مستغانم</t>
+  </si>
+  <si>
+    <t>56 XL</t>
+  </si>
+  <si>
+    <t>باتنة</t>
+  </si>
+  <si>
+    <t>وسط المدينة</t>
+  </si>
+  <si>
+    <t>هايلة</t>
+  </si>
+  <si>
+    <t>ماعنديش العاصمة</t>
+  </si>
+  <si>
+    <t>مانعرف</t>
+  </si>
+  <si>
+    <t>مختار</t>
+  </si>
+  <si>
+    <t>kharouba</t>
+  </si>
+  <si>
+    <t>bouazza</t>
+  </si>
+  <si>
+    <t>tissemsilt</t>
+  </si>
+  <si>
+    <t>xl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m"/>
+    <numFmt numFmtId="169" formatCode="[$-2000401]0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -289,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -344,6 +915,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +965,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K59">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="الاسم و لقب"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="رقم الهاتف"/>
@@ -612,11 +1184,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,232 +1238,1710 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>770243520</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8">
+        <v>17000</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11">
+        <v>557256821</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12">
+        <v>56</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
+      <c r="J3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>663123834</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="16">
+        <v>64</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8500</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11">
+        <v>669727489</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="12">
+        <v>54</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5">
+        <v>560966200</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8500</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11">
+        <v>656030997</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6">
+        <v>56</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8">
+        <v>8500</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="11">
+        <v>550040424</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5">
+        <v>658536748</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8500</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="11">
+        <v>540734201</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5">
+        <v>665324875</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8500</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="11">
+        <v>662377924</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="11">
+        <v>62</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="18"/>
+      <c r="J13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
+      <c r="A14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5">
+        <v>550530122</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <v>8500</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="11">
+        <v>560431709</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5">
+        <v>798831423</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="6">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8">
+        <v>17000</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="11">
+        <v>660399446</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="14"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="23"/>
+      <c r="A18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="21">
+        <v>58</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="24">
+        <v>8500</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19">
+        <v>697243847</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>8500</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>671450858</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>8500</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>660717090</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>8500</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>660315017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>8500</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>699023504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>8500</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>770532020</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>8500</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>771555614</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>8500</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26">
+        <v>675514507</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>8500</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>661206080</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>8500</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28">
+        <v>698632121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>8500</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29">
+        <v>542645472</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>8500</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <v>796828195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>8500</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>559492605</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>8500</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32">
+        <v>665416729</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>8500</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>8500</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34">
+        <v>666123655</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>8500</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35">
+        <v>668113340</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>8500</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>798657890</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>8500</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37">
+        <v>553290338</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>8500</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38">
+        <v>553220739</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>8500</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39">
+        <v>554138406</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>8500</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40">
+        <v>669748040</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>8500</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41">
+        <v>663907755</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>8500</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42">
+        <v>550565297</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>8500</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43">
+        <v>770276990</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>8500</v>
+      </c>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44">
+        <v>770510962</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="26">
+        <v>8766678885</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>8500</v>
+      </c>
+      <c r="H45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>8500</v>
+      </c>
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47">
+        <v>669175655</v>
+      </c>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47">
+        <v>56</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>8500</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>770299587</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>8500</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49">
+        <v>770584950</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49">
+        <v>62</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>8500</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50">
+        <v>775658737</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>8500</v>
+      </c>
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51">
+        <v>670029215</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>8500</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52">
+        <v>661219499</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52">
+        <v>58</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>8500</v>
+      </c>
+      <c r="H52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53">
+        <v>658626973</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>8500</v>
+      </c>
+      <c r="H53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54">
+        <v>666218305</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54">
+        <v>62</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>8500</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>187</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55">
+        <v>697069766</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>8500</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56">
+        <v>558788672</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>8500</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57">
+        <v>665603676</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>8500</v>
+      </c>
+      <c r="H57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58">
+        <v>771664938</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>8500</v>
+      </c>
+      <c r="H58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59">
+        <v>770003463</v>
+      </c>
+      <c r="C59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>8500</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"expidie,attend expidie"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H18 F2:F18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H59 F2:F59" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/raw_data_template.xlsx
+++ b/data/raw_data_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\work\zaki\automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2542874-74FE-46E1-84E2-4C5E9BE0F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6816985-D5FC-47A6-A7E7-9B706E338A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="171">
   <si>
     <t>الاسم و لقب</t>
   </si>
@@ -55,136 +55,484 @@
     <t>comment-2</t>
   </si>
   <si>
-    <t>قشابية ثالثة</t>
-  </si>
-  <si>
     <t>confirmer</t>
   </si>
   <si>
-    <t>الجلفة</t>
-  </si>
-  <si>
-    <t>بيضا</t>
-  </si>
-  <si>
     <t>للمنزل</t>
   </si>
   <si>
-    <t>للمكتب</t>
-  </si>
-  <si>
-    <t>صفرا</t>
-  </si>
-  <si>
-    <t>بيضا بالاصفر</t>
-  </si>
-  <si>
-    <t>مستغانم</t>
-  </si>
-  <si>
     <t>سعيدة</t>
   </si>
   <si>
-    <t>زوقاري طاهر</t>
-  </si>
-  <si>
-    <t>غليزان</t>
-  </si>
-  <si>
-    <t>17 شارع الجمهورية غليزان</t>
-  </si>
-  <si>
-    <t>xxxl</t>
-  </si>
-  <si>
-    <t>tidjani mohamed</t>
-  </si>
-  <si>
-    <t>eloued</t>
-  </si>
-  <si>
-    <t>guemar</t>
-  </si>
-  <si>
-    <t>جقدالي عامر</t>
-  </si>
-  <si>
-    <t>بادية حاسي العش …دائرة حاسي بحبح</t>
-  </si>
-  <si>
-    <t>semicha nacereddine</t>
-  </si>
-  <si>
-    <t>djelfa</t>
-  </si>
-  <si>
-    <t>ain oussera</t>
-  </si>
-  <si>
-    <t>mosbah youcef</t>
-  </si>
-  <si>
-    <t>el menia</t>
-  </si>
-  <si>
-    <t>hai belaid</t>
-  </si>
-  <si>
-    <t>رڨيڨ حبيب صلاح الدين</t>
-  </si>
-  <si>
-    <t>مسجد الكوثر حي خروبة مستغانم</t>
-  </si>
-  <si>
-    <t>56 XL</t>
-  </si>
-  <si>
     <t>وسط المدينة</t>
   </si>
   <si>
-    <t>bouazza</t>
-  </si>
-  <si>
     <t>tissemsilt</t>
   </si>
   <si>
-    <t>xl</t>
-  </si>
-  <si>
-    <t>الطيب</t>
-  </si>
-  <si>
-    <t>الحساسنة</t>
-  </si>
-  <si>
-    <t>عبد الله</t>
-  </si>
-  <si>
-    <t>بسكرة</t>
-  </si>
-  <si>
-    <t>سهلي زين الدين</t>
-  </si>
-  <si>
-    <t>المنيعة</t>
-  </si>
-  <si>
-    <t>بلدية المنيعة</t>
-  </si>
-  <si>
-    <t>XL58</t>
-  </si>
-  <si>
-    <t>عبد الحكيم بديار</t>
-  </si>
-  <si>
-    <t>الدويرة AADL Stade</t>
-  </si>
-  <si>
-    <t>54+بيضا بالاصفر</t>
-  </si>
-  <si>
     <t>comment-22</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>سطيف</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>قشابية</t>
+  </si>
+  <si>
+    <t>8500DA</t>
+  </si>
+  <si>
+    <t>expidie</t>
+  </si>
+  <si>
+    <t>gris</t>
+  </si>
+  <si>
+    <t>0660 34 63 34</t>
+  </si>
+  <si>
+    <t>غرداية</t>
+  </si>
+  <si>
+    <t>بلحاج فؤاد</t>
+  </si>
+  <si>
+    <t>تيارت</t>
+  </si>
+  <si>
+    <t>رحوية</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>التوصيل للمنزل 50 الف</t>
+  </si>
+  <si>
+    <t>CHEKKOUR SALAH</t>
+  </si>
+  <si>
+    <t>Bouira</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>maron</t>
+  </si>
+  <si>
+    <t>حاج عومر فاتح</t>
+  </si>
+  <si>
+    <t>alger</t>
+  </si>
+  <si>
+    <t>kouba</t>
+  </si>
+  <si>
+    <t>Bleu</t>
+  </si>
+  <si>
+    <t>محمد مبروكي</t>
+  </si>
+  <si>
+    <t>تندوف بلدية تندوف</t>
+  </si>
+  <si>
+    <t>بلدية تندوف</t>
+  </si>
+  <si>
+    <t>Annulé</t>
+  </si>
+  <si>
+    <t>خليل</t>
+  </si>
+  <si>
+    <t>ادرار</t>
+  </si>
+  <si>
+    <t>djeffal brahim</t>
+  </si>
+  <si>
+    <t>الجزائر</t>
+  </si>
+  <si>
+    <t>sidi moussa</t>
+  </si>
+  <si>
+    <t>xxl</t>
+  </si>
+  <si>
+    <t>ALIAMMAR</t>
+  </si>
+  <si>
+    <t>0662 16 21 29</t>
+  </si>
+  <si>
+    <t>tiaret</t>
+  </si>
+  <si>
+    <t>gris foncé</t>
+  </si>
+  <si>
+    <t>bureau</t>
+  </si>
+  <si>
+    <t>حسان وحيد</t>
+  </si>
+  <si>
+    <t>Blida</t>
+  </si>
+  <si>
+    <t>XXXXL</t>
+  </si>
+  <si>
+    <t>maron foncé</t>
+  </si>
+  <si>
+    <t>قطاف</t>
+  </si>
+  <si>
+    <t>البليدة</t>
+  </si>
+  <si>
+    <t>بلدية مفتاح</t>
+  </si>
+  <si>
+    <t>Amine BENAOUDA</t>
+  </si>
+  <si>
+    <t>Relizane</t>
+  </si>
+  <si>
+    <t>Plateau remonte n 7 Relizane</t>
+  </si>
+  <si>
+    <t>gris clair</t>
+  </si>
+  <si>
+    <t>علي</t>
+  </si>
+  <si>
+    <t>سدي بلعباس</t>
+  </si>
+  <si>
+    <t>16شارع لعوج قاضي</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Mabrouk Mettai</t>
+  </si>
+  <si>
+    <t>Biskra</t>
+  </si>
+  <si>
+    <t>Elghrous</t>
+  </si>
+  <si>
+    <t>zouj vert et gris clair</t>
+  </si>
+  <si>
+    <t>يوسف بوعناني</t>
+  </si>
+  <si>
+    <t>معسكر</t>
+  </si>
+  <si>
+    <t>مسجد عثمان بن عفان سيق</t>
+  </si>
+  <si>
+    <t>التوصيل للمنزل 50 ميل</t>
+  </si>
+  <si>
+    <t>Abdelghani</t>
+  </si>
+  <si>
+    <t>Tlemcen</t>
+  </si>
+  <si>
+    <t>Zone industrial</t>
+  </si>
+  <si>
+    <t>XxXXL</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>lotfi</t>
+  </si>
+  <si>
+    <t>0772 102309</t>
+  </si>
+  <si>
+    <t>tlemcen</t>
+  </si>
+  <si>
+    <t>188cm الطول التاعي</t>
+  </si>
+  <si>
+    <t>Brahim</t>
+  </si>
+  <si>
+    <t>Ghazaouet</t>
+  </si>
+  <si>
+    <t>52/54</t>
+  </si>
+  <si>
+    <t>Moussa azzizi</t>
+  </si>
+  <si>
+    <t>Constantine</t>
+  </si>
+  <si>
+    <t>El khroub</t>
+  </si>
+  <si>
+    <t>58xl</t>
+  </si>
+  <si>
+    <t>Lotfidjama</t>
+  </si>
+  <si>
+    <t>Béni abbés</t>
+  </si>
+  <si>
+    <t>Apc elouata</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Ouled fayet ooredoo</t>
+  </si>
+  <si>
+    <t>amari</t>
+  </si>
+  <si>
+    <t>chlef</t>
+  </si>
+  <si>
+    <t>chlef centre-ville</t>
+  </si>
+  <si>
+    <t>large l</t>
+  </si>
+  <si>
+    <t>حسين</t>
+  </si>
+  <si>
+    <t>سيدي بلعباس</t>
+  </si>
+  <si>
+    <t>شارع عميري رحو راس الماء</t>
+  </si>
+  <si>
+    <t>عادل</t>
+  </si>
+  <si>
+    <t>ورقلة</t>
+  </si>
+  <si>
+    <t>m 58</t>
+  </si>
+  <si>
+    <t>Zakaria b</t>
+  </si>
+  <si>
+    <t>قسنطينة</t>
+  </si>
+  <si>
+    <t>احمد بن علي</t>
+  </si>
+  <si>
+    <t>blida</t>
+  </si>
+  <si>
+    <t>zabana blida</t>
+  </si>
+  <si>
+    <t>شعيب</t>
+  </si>
+  <si>
+    <t>بومرداس</t>
+  </si>
+  <si>
+    <t>entre 54 et 56</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>gue de costantine</t>
+  </si>
+  <si>
+    <t>سلام</t>
+  </si>
+  <si>
+    <t>Xl</t>
+  </si>
+  <si>
+    <t>ROBE SALI</t>
+  </si>
+  <si>
+    <t>rappel 1</t>
+  </si>
+  <si>
+    <t>زروقي رشيد</t>
+  </si>
+  <si>
+    <t>البويرة</t>
+  </si>
+  <si>
+    <t>بلدية ديرة</t>
+  </si>
+  <si>
+    <t>2عامين</t>
+  </si>
+  <si>
+    <t>grena</t>
+  </si>
+  <si>
+    <t>السلام عليكم السن عامين و نصف</t>
+  </si>
+  <si>
+    <t>Soumaa</t>
+  </si>
+  <si>
+    <t>السن عامين و نصف نحيلة شوي</t>
+  </si>
+  <si>
+    <t>rouge</t>
+  </si>
+  <si>
+    <t>سلام عليكم</t>
+  </si>
+  <si>
+    <t>المدية</t>
+  </si>
+  <si>
+    <t>حي مصلى عمارة 24 رقم 02</t>
+  </si>
+  <si>
+    <t>10 سنوات</t>
+  </si>
+  <si>
+    <t>وعه محمد اكرم</t>
+  </si>
+  <si>
+    <t>وادي سوف</t>
+  </si>
+  <si>
+    <t>وادي سوف سونطر</t>
+  </si>
+  <si>
+    <t>بوفاريك</t>
+  </si>
+  <si>
+    <t>أحمان عزالدين</t>
+  </si>
+  <si>
+    <t>ولاية البويرة</t>
+  </si>
+  <si>
+    <t>Salam akram</t>
+  </si>
+  <si>
+    <t>Alger</t>
+  </si>
+  <si>
+    <t>Kouba</t>
+  </si>
+  <si>
+    <t>6ans</t>
+  </si>
+  <si>
+    <t>Miloud meloud</t>
+  </si>
+  <si>
+    <t>Batna</t>
+  </si>
+  <si>
+    <t>Hay bokays</t>
+  </si>
+  <si>
+    <t>بوزيد رشيد</t>
+  </si>
+  <si>
+    <t>قسم رقم 77 براقي</t>
+  </si>
+  <si>
+    <t>4 و 6 سنوات</t>
+  </si>
+  <si>
+    <t>بلال</t>
+  </si>
+  <si>
+    <t>BOXE ELASTIQUE</t>
+  </si>
+  <si>
+    <t>SLM khoya 3andkom li onnsombl ta3 Bnat 10 snin</t>
+  </si>
+  <si>
+    <t>Bofrik</t>
+  </si>
+  <si>
+    <t>Faux numero</t>
+  </si>
+  <si>
+    <t>ikhlef rabah</t>
+  </si>
+  <si>
+    <t>Nacer saouli</t>
+  </si>
+  <si>
+    <t>Béjaïa</t>
+  </si>
+  <si>
+    <t>talahamza</t>
+  </si>
+  <si>
+    <t>je ne sais pas comment comment déterminer la taille</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>medea</t>
+  </si>
+  <si>
+    <t>18 rue mothtari</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>ناصر</t>
+  </si>
+  <si>
+    <t>العاصمة</t>
+  </si>
+  <si>
+    <t>برج الكيفان</t>
+  </si>
+  <si>
+    <t>Xxl</t>
+  </si>
+  <si>
+    <t>dido</t>
+  </si>
+  <si>
+    <t>سيدي امبارك</t>
   </si>
 </sst>
 </file>
@@ -753,11 +1101,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -806,191 +1154,208 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
-        <v>770109677</v>
+        <v>540835564</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="6">
-        <v>58</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8">
-        <v>9000</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="11">
-        <v>657018705</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E3" s="12">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14">
-        <v>8500</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5">
-        <v>553290338</v>
+        <v>667662904</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="16">
+        <v>62</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8">
-        <v>8500</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7"/>
       <c r="J4" s="8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B5" s="11">
-        <v>554138406</v>
+        <v>670155871</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="12">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14">
-        <v>8500</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5">
-        <v>660065666</v>
+        <v>556008165</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8">
-        <v>8500</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5">
-        <v>770510962</v>
+        <v>662667149</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <f xml:space="preserve"> 8000*4</f>
-        <v>32000</v>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
@@ -998,61 +1363,57 @@
     </row>
     <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B8" s="11">
-        <v>669175655</v>
+        <v>661614446</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E8" s="12">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="14">
-        <v>8500</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5">
-        <v>666218305</v>
+        <v>550313219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="6">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8500</v>
+        <v>20</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
@@ -1060,158 +1421,1151 @@
     </row>
     <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="11">
-        <v>697069766</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="E10" s="11">
+        <v>56</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14">
-        <v>8500</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="I10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5">
-        <v>770003463</v>
+        <v>661237466</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8">
-        <v>8500</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="17"/>
+      <c r="I11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B12" s="11">
-        <v>792484290</v>
-      </c>
-      <c r="C12" s="12">
-        <v>792484290</v>
+        <v>771517160</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="11">
+        <v>62</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5">
+        <v>557386956</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="11">
+        <v>771576542</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="5">
+        <v>671591336</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="6">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="11">
+        <v>662076041</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="11">
+        <v>58</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="21">
+        <v>661222032</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <v>541169625</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20">
+        <v>661475454</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21">
+        <v>791945196</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22">
+        <v>770558091</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23">
+        <v>550519360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24">
+        <v>550308494</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>661473522</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26">
+        <v>661125399</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>552197784</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>561940067</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29">
+        <v>661900198</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <v>798588816</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31">
+        <v>551643884</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>669414707</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32">
+        <v>4900</v>
+      </c>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33">
+        <v>559814737</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33">
+        <v>4900</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34">
+        <v>555622385</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34">
+        <v>4900</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35">
+        <v>563635264</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35">
+        <v>4900</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>668090932</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36">
+        <v>4900</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>665662665</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37">
+        <v>4900</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>699008233</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38">
+        <v>4900</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>675510689</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39">
+        <v>4900</v>
+      </c>
+      <c r="H39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40">
+        <v>670033506</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40">
+        <v>4900</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41">
+        <v>552808093</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41">
+        <v>6500</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42">
+        <v>782684053</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42">
+        <v>4900</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43">
+        <v>542318593</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43">
+        <v>4900</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="26">
+        <v>561456789</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44">
+        <v>6500</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45">
+        <v>667325407</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45">
+        <v>6500</v>
+      </c>
+      <c r="H45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46">
+        <v>560008668</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>54</v>
+      </c>
+      <c r="G46">
+        <v>8500</v>
+      </c>
+      <c r="H46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47">
+        <v>771352186</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47">
+        <v>8500</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48">
+        <v>778797104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48">
+        <v>8500</v>
+      </c>
+      <c r="H48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49">
+        <v>699999990</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49">
+        <v>8500</v>
+      </c>
+      <c r="H49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50">
+        <v>671530413</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50">
         <v>52</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="G50">
         <v>8500</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/data/raw_data_template.xlsx
+++ b/data/raw_data_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\work\zaki\automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E4ECA-3D0B-4849-9880-06E28D18FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E11BC4F-B598-4E6A-913C-A69D5F2A5A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>الاسم و لقب</t>
   </si>
@@ -64,223 +64,178 @@
     <t>comment-22</t>
   </si>
   <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>سطيف</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>قشابية</t>
-  </si>
-  <si>
-    <t>8500DA</t>
-  </si>
-  <si>
-    <t>expidie</t>
-  </si>
-  <si>
     <t>gris</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>التوصيل للمنزل 50 الف</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>maron</t>
   </si>
   <si>
-    <t>حاج عومر فاتح</t>
-  </si>
-  <si>
-    <t>alger</t>
-  </si>
-  <si>
-    <t>kouba</t>
-  </si>
-  <si>
-    <t>Bleu</t>
-  </si>
-  <si>
-    <t>معسكر</t>
-  </si>
-  <si>
-    <t>ورقلة</t>
-  </si>
-  <si>
-    <t>ROBE SALI</t>
-  </si>
-  <si>
-    <t>تيارت</t>
-  </si>
-  <si>
     <t>Alger</t>
   </si>
   <si>
     <t>comment-23</t>
   </si>
   <si>
-    <t>4 سنوات</t>
-  </si>
-  <si>
-    <t>وهران</t>
-  </si>
-  <si>
-    <t>6سنوات</t>
-  </si>
-  <si>
-    <t>مسيلة</t>
-  </si>
-  <si>
-    <t>بوسعادة</t>
-  </si>
-  <si>
-    <t>5 سنوات</t>
-  </si>
-  <si>
-    <t>Annulé</t>
-  </si>
-  <si>
-    <t>Djillali</t>
-  </si>
-  <si>
-    <t>Boumerdes</t>
-  </si>
-  <si>
-    <t>Thenia</t>
-  </si>
-  <si>
-    <t>السلام مرحبا</t>
-  </si>
-  <si>
-    <t>Staoueli</t>
-  </si>
-  <si>
-    <t>عين الترك</t>
-  </si>
-  <si>
-    <t>خا</t>
-  </si>
-  <si>
-    <t>حن</t>
-  </si>
-  <si>
-    <t>ته</t>
-  </si>
-  <si>
-    <t>nassim</t>
-  </si>
-  <si>
-    <t>touggourt</t>
-  </si>
-  <si>
-    <t>3 ans</t>
-  </si>
-  <si>
-    <t>عبدالله</t>
-  </si>
-  <si>
-    <t>الجزائر العاصمة</t>
-  </si>
-  <si>
-    <t>سحاولة</t>
-  </si>
-  <si>
-    <t>كل</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>Cité 200 logement kh ch</t>
-  </si>
-  <si>
-    <t>حكيم</t>
-  </si>
-  <si>
-    <t>الجلفة</t>
-  </si>
-  <si>
-    <t>عين افكه</t>
-  </si>
-  <si>
-    <t>4سنين</t>
-  </si>
-  <si>
-    <t>سمية</t>
-  </si>
-  <si>
-    <t>سعيد عتبة ورقلة</t>
-  </si>
-  <si>
-    <t>لا اعرف</t>
-  </si>
-  <si>
-    <t>الصور لاطاي الكبيرة</t>
-  </si>
-  <si>
-    <t>سيداح</t>
-  </si>
-  <si>
-    <t>4سنوات</t>
-  </si>
-  <si>
-    <t>بوعنان هشام</t>
-  </si>
-  <si>
-    <t>المغير</t>
-  </si>
-  <si>
-    <t>جامعة</t>
-  </si>
-  <si>
-    <t>6 سنوات</t>
-  </si>
-  <si>
-    <t>الصور</t>
-  </si>
-  <si>
-    <t>بشار</t>
-  </si>
-  <si>
-    <t>العبادلة</t>
-  </si>
-  <si>
-    <t>سلام عليكم عندك 3سنين</t>
-  </si>
-  <si>
-    <t>مديه</t>
-  </si>
-  <si>
-    <t>حي رياض عمارات جنوبيه</t>
-  </si>
-  <si>
-    <t>3سنين</t>
-  </si>
-  <si>
-    <t>0660 34 63 34</t>
-  </si>
-  <si>
-    <t>غرداية</t>
-  </si>
-  <si>
-    <t>بلحاج فؤاد</t>
-  </si>
-  <si>
-    <t>رحوية</t>
-  </si>
-  <si>
-    <t>CHEKKOUR SALAH</t>
-  </si>
-  <si>
-    <t>Bouira</t>
+    <t>hicham</t>
+  </si>
+  <si>
+    <t>Tlemcen</t>
+  </si>
+  <si>
+    <t>tlemcen</t>
+  </si>
+  <si>
+    <t>قشابية ثالثة</t>
+  </si>
+  <si>
+    <t>attend expidie</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>بلال سعدوت</t>
+  </si>
+  <si>
+    <t>،0667149360</t>
+  </si>
+  <si>
+    <t>عين الدفلي</t>
+  </si>
+  <si>
+    <t>حي محمد خياط</t>
+  </si>
+  <si>
+    <t>omar</t>
+  </si>
+  <si>
+    <t>jijel</t>
+  </si>
+  <si>
+    <t>campchevalier</t>
+  </si>
+  <si>
+    <t>3xl</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>جلابة اللون الاصفر مقاس xl او xxl</t>
+  </si>
+  <si>
+    <t>بلعباس</t>
+  </si>
+  <si>
+    <t>شارع قايد رابح عدل 2000</t>
+  </si>
+  <si>
+    <t>xl او xxl</t>
+  </si>
+  <si>
+    <t>صفرا</t>
+  </si>
+  <si>
+    <t>Elafani ali</t>
+  </si>
+  <si>
+    <t>Mostaganem</t>
+  </si>
+  <si>
+    <t>محمد بن سالم</t>
+  </si>
+  <si>
+    <t>الاغواط</t>
+  </si>
+  <si>
+    <t>مسجد سيدي ع الجبار عين ماضي</t>
+  </si>
+  <si>
+    <t>58/24</t>
+  </si>
+  <si>
+    <t>هارون</t>
+  </si>
+  <si>
+    <t>تيبازة</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>بيضاء</t>
+  </si>
+  <si>
+    <t>للمكتب</t>
+  </si>
+  <si>
+    <t>Senour Sofiane</t>
+  </si>
+  <si>
+    <t>El djerf</t>
+  </si>
+  <si>
+    <t>Xxxl</t>
+  </si>
+  <si>
+    <t>قشابية ثانية</t>
+  </si>
+  <si>
+    <t>حبيبي يحياوي</t>
+  </si>
+  <si>
+    <t>باتنة</t>
+  </si>
+  <si>
+    <t>BENDELLAH MILOUD</t>
+  </si>
+  <si>
+    <t>TINDOUF</t>
+  </si>
+  <si>
+    <t>74 logts blocA n 2 Hai Ennasr Tindouf</t>
+  </si>
+  <si>
+    <t>تتبيرت عيسى</t>
+  </si>
+  <si>
+    <t>الجزائر</t>
+  </si>
+  <si>
+    <t>محمد بن امزال براقي 191</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Mira khelaf</t>
+  </si>
+  <si>
+    <t>Bechar</t>
+  </si>
+  <si>
+    <t>Brchar ville</t>
+  </si>
+  <si>
+    <t>Grand taille</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>قسنطينة</t>
+  </si>
+  <si>
+    <t>الخروب</t>
+  </si>
+  <si>
+    <t>LACOSTE</t>
+  </si>
+  <si>
+    <t>التوصيل مجاني للمنزل</t>
   </si>
 </sst>
 </file>
@@ -433,7 +388,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M14">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="الاسم و لقب"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="رقم الهاتف"/>
@@ -654,11 +609,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -710,561 +665,462 @@
         <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>676128232</v>
+        <v>775918083</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>792475792</v>
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>662423792</v>
+        <v>799196643</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>8500</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4">
-        <v>4900</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
+      <c r="K4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>669351057</v>
+        <v>697086277</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="E5" t="s">
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>676328357</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>661426716</v>
+        <v>666837727</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>4900</v>
+        <v>8500</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>662286813</v>
+        <v>555668240</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>4900</v>
+        <v>8000</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>552512791</v>
+        <v>558067944</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>6500</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>662604473</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
         <v>60</v>
       </c>
-      <c r="B10">
-        <v>774136236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>6500</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>673042371</v>
+        <v>673903034</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>6500</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B12">
-        <v>698988990</v>
+        <v>562775403</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G12">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>660561057</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>8500</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>799099926</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="B13">
-        <v>664033788</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="G14">
+        <v>3500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
         <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13">
-        <v>6500</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>660460444</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14">
-        <v>6500</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15">
-        <v>670344923</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15">
-        <v>6500</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>540835564</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18">
-        <v>667662904</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19">
-        <v>670155871</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>556008165</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"expidie,attend expidie"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H20 F2:F20" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H14 F2:F14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
